--- a/data/mall-cloud-alibaba/order-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/order-server_structure.xlsx
@@ -930,114 +930,114 @@
     <t>orderItemList</t>
   </si>
   <si>
+    <t>promotionAmount</t>
+  </si>
+  <si>
+    <t>payAmount</t>
+  </si>
+  <si>
     <t>totalAmount</t>
   </si>
   <si>
     <t>freightAmount</t>
   </si>
   <si>
-    <t>promotionAmount</t>
-  </si>
-  <si>
-    <t>payAmount</t>
-  </si>
-  <si>
     <t>productFeign</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.client.ProductFeign</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
+    <t>memberFeign</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.MemberFeign</t>
+  </si>
+  <si>
+    <t>cancelOrderSender</t>
+  </si>
+  <si>
+    <t>jwtTokenUtil</t>
+  </si>
+  <si>
+    <t>orderMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.OmsOrderMapper</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>couponFeign</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.CouponFeign</t>
+  </si>
+  <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.security.service.RedisService</t>
+  </si>
+  <si>
+    <t>orderItemMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.OmsOrderItemMapper</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_ORDER_ID</t>
+  </si>
+  <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
+    <t>memberUtil</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>tokenHeader</t>
+  </si>
+  <si>
     <t>redisTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.RedisTemplate</t>
   </si>
   <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
-    <t>orderItemMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.OmsOrderItemMapper</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>memberFeign</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.MemberFeign</t>
-  </si>
-  <si>
-    <t>orderMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.OmsOrderMapper</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.OmsOrderSettingMapper</t>
+    <t>cartItemService</t>
   </si>
   <si>
     <t>portalOrderDao</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.security.service.RedisService</t>
-  </si>
-  <si>
-    <t>jwtTokenUtil</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_ORDER_ID</t>
-  </si>
-  <si>
-    <t>cartItemService</t>
-  </si>
-  <si>
-    <t>cancelOrderSender</t>
-  </si>
-  <si>
-    <t>memberUtil</t>
-  </si>
-  <si>
-    <t>couponFeign</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.CouponFeign</t>
-  </si>
-  <si>
     <t>orderItemDao</t>
   </si>
   <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
-  </si>
-  <si>
-    <t>tokenHeader</t>
+    <t>tokenHead</t>
   </si>
   <si>
     <t>secret</t>
   </si>
   <si>
-    <t>tokenHead</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
@@ -1053,24 +1053,24 @@
     <t>com.mtcarpenter.mall.mapper.OmsCartItemMapper</t>
   </si>
   <si>
+    <t>routeKey</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>QUEUE_TTL_ORDER_CANCEL</t>
   </si>
   <si>
     <t>QUEUE_ORDER_CANCEL</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>routeKey</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>val$delayTimes</t>
   </si>
   <si>
@@ -1092,85 +1092,85 @@
     <t>com.mtcarpenter.mall.mapper.OmsOrderReturnApplyMapper</t>
   </si>
   <si>
+    <t>calcAmount</t>
+  </si>
+  <si>
     <t>cartPromotionItemList</t>
   </si>
   <si>
-    <t>calcAmount</t>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
+    <t>memberIntegration</t>
   </si>
   <si>
     <t>couponHistoryDetailList</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
-    <t>memberIntegration</t>
-  </si>
-  <si>
     <t>integrationConsumeSetting</t>
   </si>
   <si>
     <t>useIntegration</t>
   </si>
   <si>
+    <t>cartIds</t>
+  </si>
+  <si>
+    <t>couponId</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressId</t>
+  </si>
+  <si>
     <t>payType</t>
   </si>
   <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>cartIds</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressId</t>
-  </si>
-  <si>
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t>returnPhone</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>productPic</t>
+  </si>
+  <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>proofPics</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
     <t>productRealPrice</t>
   </si>
   <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>productPic</t>
-  </si>
-  <si>
-    <t>productPrice</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
-    <t>orderId</t>
+    <t>productAttr</t>
+  </si>
+  <si>
+    <t>orderSn</t>
   </si>
   <si>
     <t>memberUsername</t>
   </si>
   <si>
     <t>productBrand</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>returnPhone</t>
-  </si>
-  <si>
-    <t>productAttr</t>
   </si>
   <si>
     <t>productCount</t>
@@ -12761,13 +12761,13 @@
         <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -12775,13 +12775,13 @@
         <v>87</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
@@ -12789,13 +12789,13 @@
         <v>87</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>312</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -12803,13 +12803,13 @@
         <v>87</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12">
@@ -12817,13 +12817,13 @@
         <v>87</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>315</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -12831,13 +12831,13 @@
         <v>87</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>317</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -12845,13 +12845,13 @@
         <v>87</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15">
@@ -12859,13 +12859,13 @@
         <v>87</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16">
@@ -12873,13 +12873,13 @@
         <v>87</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17">
@@ -12887,13 +12887,13 @@
         <v>87</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>155</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18">
@@ -12921,7 +12921,7 @@
         <v>43</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -12935,7 +12935,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21">
@@ -12943,13 +12943,13 @@
         <v>87</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -12957,13 +12957,13 @@
         <v>87</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -12971,13 +12971,13 @@
         <v>87</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -12985,13 +12985,13 @@
         <v>87</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25">
@@ -12999,13 +12999,13 @@
         <v>87</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>280</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -13013,13 +13013,13 @@
         <v>87</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>334</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27">
@@ -13033,7 +13033,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>14</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28">
@@ -13041,7 +13041,7 @@
         <v>110</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>43</v>
@@ -13089,7 +13089,7 @@
         <v>43</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32">
@@ -13111,13 +13111,13 @@
         <v>125</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>319</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -13125,13 +13125,13 @@
         <v>125</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>309</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -13139,13 +13139,13 @@
         <v>125</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>14</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
@@ -13153,13 +13153,13 @@
         <v>125</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -13167,13 +13167,13 @@
         <v>125</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>14</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
@@ -13181,13 +13181,13 @@
         <v>129</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>125</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39">
@@ -13195,13 +13195,13 @@
         <v>129</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>307</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
@@ -13209,13 +13209,13 @@
         <v>129</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>228</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -13223,13 +13223,13 @@
         <v>129</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>342</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -13237,13 +13237,13 @@
         <v>129</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43">
@@ -13254,10 +13254,10 @@
         <v>343</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -13268,10 +13268,10 @@
         <v>344</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -13299,7 +13299,7 @@
         <v>43</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
@@ -13310,10 +13310,10 @@
         <v>347</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>14</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48">
@@ -13324,10 +13324,10 @@
         <v>348</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49">
@@ -13369,7 +13369,7 @@
         <v>43</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52">
@@ -13411,7 +13411,7 @@
         <v>43</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -13425,7 +13425,7 @@
         <v>43</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -13453,7 +13453,7 @@
         <v>43</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -13467,7 +13467,7 @@
         <v>43</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -13509,7 +13509,7 @@
         <v>43</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -13537,7 +13537,7 @@
         <v>43</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>28</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64">
@@ -13551,7 +13551,7 @@
         <v>43</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>195</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -13559,13 +13559,13 @@
         <v>288</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>125</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66">
@@ -13573,13 +13573,13 @@
         <v>288</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -13593,7 +13593,7 @@
         <v>43</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>334</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
@@ -13629,13 +13629,13 @@
         <v>229</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>319</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71">
@@ -13643,13 +13643,13 @@
         <v>229</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>61</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72">
@@ -13663,7 +13663,7 @@
         <v>43</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>33</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73">
@@ -13677,7 +13677,7 @@
         <v>43</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>195</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -13705,7 +13705,7 @@
         <v>43</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>33</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -13747,7 +13747,7 @@
         <v>43</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>195</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -13803,7 +13803,7 @@
         <v>43</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -13915,7 +13915,7 @@
         <v>43</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -16493,7 +16493,7 @@
         <v>134</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>389</v>
@@ -16510,7 +16510,7 @@
         <v>134</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>389</v>
@@ -16527,7 +16527,7 @@
         <v>134</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>389</v>
@@ -16544,7 +16544,7 @@
         <v>134</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>389</v>
@@ -16561,7 +16561,7 @@
         <v>134</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>390</v>
@@ -16578,7 +16578,7 @@
         <v>134</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>389</v>
@@ -16595,7 +16595,7 @@
         <v>134</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>389</v>
@@ -16612,7 +16612,7 @@
         <v>134</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>390</v>
